--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.1930666666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.5791999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.01292026122037801</v>
+      </c>
+      <c r="J2">
+        <v>0.01292026122037801</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G2">
-        <v>0.2143436666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.643031</v>
-      </c>
-      <c r="I2">
-        <v>0.02290233455071953</v>
-      </c>
-      <c r="J2">
-        <v>0.02290233455071953</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.261293</v>
+        <v>1.311698333333333</v>
       </c>
       <c r="N2">
-        <v>0.783879</v>
+        <v>3.935095</v>
       </c>
       <c r="O2">
-        <v>0.04010308082688332</v>
+        <v>0.6472031793931536</v>
       </c>
       <c r="P2">
-        <v>0.04010308082688332</v>
+        <v>0.6472031793931535</v>
       </c>
       <c r="Q2">
-        <v>0.05600649969433334</v>
+        <v>0.2532452248888888</v>
       </c>
       <c r="R2">
-        <v>0.504058497249</v>
+        <v>2.279207024</v>
       </c>
       <c r="S2">
-        <v>0.0009184541736118279</v>
+        <v>0.008362034140418712</v>
       </c>
       <c r="T2">
-        <v>0.0009184541736118277</v>
+        <v>0.008362034140418712</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2143436666666667</v>
+        <v>0.1930666666666666</v>
       </c>
       <c r="H3">
-        <v>0.643031</v>
+        <v>0.5791999999999999</v>
       </c>
       <c r="I3">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="J3">
-        <v>0.02290233455071953</v>
+        <v>0.01292026122037801</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.311698333333333</v>
+        <v>0.7150196666666666</v>
       </c>
       <c r="N3">
-        <v>3.935095</v>
+        <v>2.145059</v>
       </c>
       <c r="O3">
-        <v>0.201318612753326</v>
+        <v>0.3527968206068465</v>
       </c>
       <c r="P3">
-        <v>0.201318612753326</v>
+        <v>0.3527968206068464</v>
       </c>
       <c r="Q3">
-        <v>0.2811542303272223</v>
+        <v>0.1380464636444444</v>
       </c>
       <c r="R3">
-        <v>2.530388072945</v>
+        <v>1.2424181728</v>
       </c>
       <c r="S3">
-        <v>0.004610666220563423</v>
+        <v>0.004558227079959295</v>
       </c>
       <c r="T3">
-        <v>0.004610666220563423</v>
+        <v>0.004558227079959295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2143436666666667</v>
+        <v>0.666149</v>
       </c>
       <c r="H4">
-        <v>0.643031</v>
+        <v>1.998447</v>
       </c>
       <c r="I4">
-        <v>0.02290233455071953</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="J4">
-        <v>0.02290233455071953</v>
+        <v>0.04457951877603725</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.942543</v>
+        <v>1.311698333333333</v>
       </c>
       <c r="N4">
-        <v>14.827629</v>
+        <v>3.935095</v>
       </c>
       <c r="O4">
-        <v>0.7585783064197906</v>
+        <v>0.6472031793931536</v>
       </c>
       <c r="P4">
-        <v>0.7585783064197906</v>
+        <v>0.6472031793931535</v>
       </c>
       <c r="Q4">
-        <v>1.059402789277667</v>
+        <v>0.8737865330516668</v>
       </c>
       <c r="R4">
-        <v>9.534625103499</v>
+        <v>7.864078797465</v>
       </c>
       <c r="S4">
-        <v>0.01737321415654428</v>
+        <v>0.02885200628766809</v>
       </c>
       <c r="T4">
-        <v>0.01737321415654428</v>
+        <v>0.02885200628766809</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,45 +726,45 @@
         <v>1.998447</v>
       </c>
       <c r="I5">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603724</v>
       </c>
       <c r="J5">
-        <v>0.07117713108058832</v>
+        <v>0.04457951877603725</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.261293</v>
+        <v>0.7150196666666666</v>
       </c>
       <c r="N5">
-        <v>0.783879</v>
+        <v>2.145059</v>
       </c>
       <c r="O5">
-        <v>0.04010308082688332</v>
+        <v>0.3527968206068465</v>
       </c>
       <c r="P5">
-        <v>0.04010308082688332</v>
+        <v>0.3527968206068464</v>
       </c>
       <c r="Q5">
-        <v>0.174060070657</v>
+        <v>0.4763096359303333</v>
       </c>
       <c r="R5">
-        <v>1.566540635913</v>
+        <v>4.286786723373</v>
       </c>
       <c r="S5">
-        <v>0.002854422240750503</v>
+        <v>0.01572751248836915</v>
       </c>
       <c r="T5">
-        <v>0.002854422240750502</v>
+        <v>0.01572751248836915</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,22 +776,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.666149</v>
+        <v>14.08372266666667</v>
       </c>
       <c r="H6">
-        <v>1.998447</v>
+        <v>42.251168</v>
       </c>
       <c r="I6">
-        <v>0.07117713108058832</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="J6">
-        <v>0.07117713108058832</v>
+        <v>0.9425002200035848</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>3.935095</v>
       </c>
       <c r="O6">
-        <v>0.201318612753326</v>
+        <v>0.6472031793931536</v>
       </c>
       <c r="P6">
-        <v>0.201318612753326</v>
+        <v>0.6472031793931535</v>
       </c>
       <c r="Q6">
-        <v>0.8737865330516668</v>
+        <v>18.47359554899556</v>
       </c>
       <c r="R6">
-        <v>7.864078797465</v>
+        <v>166.26235994096</v>
       </c>
       <c r="S6">
-        <v>0.01432928128890568</v>
+        <v>0.6099891389650668</v>
       </c>
       <c r="T6">
-        <v>0.01432928128890568</v>
+        <v>0.6099891389650668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,22 +838,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.666149</v>
+        <v>14.08372266666667</v>
       </c>
       <c r="H7">
-        <v>1.998447</v>
+        <v>42.251168</v>
       </c>
       <c r="I7">
-        <v>0.07117713108058832</v>
+        <v>0.9425002200035847</v>
       </c>
       <c r="J7">
-        <v>0.07117713108058832</v>
+        <v>0.9425002200035848</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.942543</v>
+        <v>0.7150196666666666</v>
       </c>
       <c r="N7">
-        <v>14.827629</v>
+        <v>2.145059</v>
       </c>
       <c r="O7">
-        <v>0.7585783064197906</v>
+        <v>0.3527968206068465</v>
       </c>
       <c r="P7">
-        <v>0.7585783064197906</v>
+        <v>0.3527968206068464</v>
       </c>
       <c r="Q7">
-        <v>3.292470076907</v>
+        <v>10.07013868654578</v>
       </c>
       <c r="R7">
-        <v>29.632230692163</v>
+        <v>90.63124817891199</v>
       </c>
       <c r="S7">
-        <v>0.05399342755093213</v>
+        <v>0.332511081038518</v>
       </c>
       <c r="T7">
-        <v>0.05399342755093213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>8.478538666666667</v>
-      </c>
-      <c r="H8">
-        <v>25.435616</v>
-      </c>
-      <c r="I8">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="J8">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.261293</v>
-      </c>
-      <c r="N8">
-        <v>0.783879</v>
-      </c>
-      <c r="O8">
-        <v>0.04010308082688332</v>
-      </c>
-      <c r="P8">
-        <v>0.04010308082688332</v>
-      </c>
-      <c r="Q8">
-        <v>2.215382803829333</v>
-      </c>
-      <c r="R8">
-        <v>19.938445234464</v>
-      </c>
-      <c r="S8">
-        <v>0.03633020441252099</v>
-      </c>
-      <c r="T8">
-        <v>0.03633020441252099</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>8.478538666666667</v>
-      </c>
-      <c r="H9">
-        <v>25.435616</v>
-      </c>
-      <c r="I9">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="J9">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.311698333333333</v>
-      </c>
-      <c r="N9">
-        <v>3.935095</v>
-      </c>
-      <c r="O9">
-        <v>0.201318612753326</v>
-      </c>
-      <c r="P9">
-        <v>0.201318612753326</v>
-      </c>
-      <c r="Q9">
-        <v>11.12128503816889</v>
-      </c>
-      <c r="R9">
-        <v>100.09156534352</v>
-      </c>
-      <c r="S9">
-        <v>0.1823786652438569</v>
-      </c>
-      <c r="T9">
-        <v>0.1823786652438568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>8.478538666666667</v>
-      </c>
-      <c r="H10">
-        <v>25.435616</v>
-      </c>
-      <c r="I10">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="J10">
-        <v>0.9059205343686921</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.942543</v>
-      </c>
-      <c r="N10">
-        <v>14.827629</v>
-      </c>
-      <c r="O10">
-        <v>0.7585783064197906</v>
-      </c>
-      <c r="P10">
-        <v>0.7585783064197906</v>
-      </c>
-      <c r="Q10">
-        <v>41.90554193716267</v>
-      </c>
-      <c r="R10">
-        <v>377.149877434464</v>
-      </c>
-      <c r="S10">
-        <v>0.6872116647123142</v>
-      </c>
-      <c r="T10">
-        <v>0.6872116647123142</v>
+        <v>0.332511081038518</v>
       </c>
     </row>
   </sheetData>
